--- a/Material_Lib.xlsx
+++ b/Material_Lib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyman\OneDrive\Documents\GitHub\Kinematic-Coupling-Design-Script-ASPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kla-my.sharepoint.com/personal/tyler_seawright_kla-tencor_com/Documents/Documents/KC_SOLVER/KC_SOLVER_MATLAB, 7-1-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D084C576-A0B3-4C70-95A2-870EE24B3C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{D084C576-A0B3-4C70-95A2-870EE24B3C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A70D1904-9BD1-47FD-A2F2-B83145C027D3}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{AB6D655C-35F1-4EA9-9A07-18AB4D133046}"/>
+    <workbookView xWindow="4230" yWindow="4275" windowWidth="21600" windowHeight="11385" xr2:uid="{AB6D655C-35F1-4EA9-9A07-18AB4D133046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Material</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Hardened Steel</t>
+  </si>
+  <si>
+    <t>Fused Silica</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +601,7 @@
         <v>25930232558.139534</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E10" si="1">0.75*C7</f>
+        <f t="shared" ref="E7:E11" si="1">0.75*C7</f>
         <v>258750000</v>
       </c>
       <c r="F7">
@@ -670,6 +673,30 @@
       <c r="F10">
         <v>0.21</v>
       </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>71200000000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>152200000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30800000000</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>114150000</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" s="1"/>

--- a/Material_Lib.xlsx
+++ b/Material_Lib.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kla-my.sharepoint.com/personal/tyler_seawright_kla-tencor_com/Documents/Documents/KC_SOLVER/KC_SOLVER_MATLAB, 7-1-24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kla-my.sharepoint.com/personal/tyler_seawright_kla-tencor_com/Documents/Documents/KC_SOLVER/KC_SOLVER_MATLAB, DEV, 10-07-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{D084C576-A0B3-4C70-95A2-870EE24B3C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A70D1904-9BD1-47FD-A2F2-B83145C027D3}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{D084C576-A0B3-4C70-95A2-870EE24B3C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26AD9829-AA67-4E79-A25D-ECA6B0DBB3F9}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="4275" windowWidth="21600" windowHeight="11385" xr2:uid="{AB6D655C-35F1-4EA9-9A07-18AB4D133046}"/>
+    <workbookView xWindow="5355" yWindow="2955" windowWidth="21600" windowHeight="12735" xr2:uid="{AB6D655C-35F1-4EA9-9A07-18AB4D133046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Material</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Fused Silica</t>
+  </si>
+  <si>
+    <t>Delrin</t>
+  </si>
+  <si>
+    <t>NBK7</t>
   </si>
 </sst>
 </file>
@@ -130,7 +136,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC92BDF-74A4-43A5-8500-0D719523E848}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +464,7 @@
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -477,7 +483,7 @@
       <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -492,13 +498,13 @@
         <v>276000000</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D9" si="0">B2/(2*(1+F2))</f>
+        <f t="shared" ref="D2:D13" si="0">B2/(2*(1+F2))</f>
         <v>25902255639.097744</v>
       </c>
       <c r="E2" s="1">
         <v>207000000</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.33</v>
       </c>
     </row>
@@ -540,7 +546,7 @@
       <c r="E4" s="1">
         <v>280000000</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -562,7 +568,7 @@
         <f>0.75*C5</f>
         <v>352500000</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -577,12 +583,13 @@
         <v>276000000</v>
       </c>
       <c r="D6" s="1">
-        <v>25900000000</v>
+        <f t="shared" si="0"/>
+        <v>79069767441.860458</v>
       </c>
       <c r="E6" s="1">
         <v>207000000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -601,10 +608,10 @@
         <v>25930232558.139534</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E11" si="1">0.75*C7</f>
+        <f t="shared" ref="E7:E13" si="1">0.75*C7</f>
         <v>258750000</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -648,7 +655,7 @@
         <f t="shared" si="1"/>
         <v>3450</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -663,14 +670,14 @@
         <v>1404000000</v>
       </c>
       <c r="D10" s="1">
-        <f>B10/(2*(1+F10))</f>
+        <f t="shared" si="0"/>
         <v>276446280991.73553</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f>0.75*C10</f>
         <v>1053000000</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>0.21</v>
       </c>
     </row>
@@ -685,24 +692,63 @@
         <v>152200000</v>
       </c>
       <c r="D11" s="1">
-        <v>30800000000</v>
+        <f t="shared" si="0"/>
+        <v>30956521739.130436</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>114150000</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>72000000000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>48000000</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>30769230769.23077</v>
+      </c>
+      <c r="E12" s="1">
+        <f>0.75*C12</f>
+        <v>36000000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3400000000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>79000000</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>1240875912.4087591</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>59250000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
@@ -721,6 +767,9 @@
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
